--- a/tokenizer/PE.xlsx
+++ b/tokenizer/PE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deep\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deep\Documents\GitHub\Transformer-from-scratch\tokenizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D580D4-D17B-4D8F-A1B4-4A4C9A60C1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66EA66E-DAB5-47A5-924C-655458088AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7815" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="位置编码" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>石</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -149,12 +149,32 @@
     <t>i = 2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>K转置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>score*V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意力矩阵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +206,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +230,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -229,7 +281,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -237,16 +289,36 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
+    <cellStyle name="60% - 着色 1" xfId="3" builtinId="32"/>
+    <cellStyle name="60% - 着色 2" xfId="4" builtinId="36"/>
+    <cellStyle name="60% - 着色 4" xfId="5" builtinId="44"/>
+    <cellStyle name="60% - 着色 6" xfId="6" builtinId="52"/>
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="计算" xfId="2" builtinId="22"/>
@@ -529,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D6:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -542,24 +614,24 @@
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="2">
         <v>0</v>
       </c>
@@ -1010,980 +1082,1754 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09AE8E6-2092-40AB-AA2F-D4CEB2FD7284}">
-  <dimension ref="C10:AB35"/>
+  <dimension ref="C10:AG45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="16" width="5.77734375" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" customWidth="1"/>
+    <col min="21" max="33" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D10">
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>3</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>4</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>5</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>6</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>7</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="4">
         <v>8</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="4">
         <v>9</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="4">
         <v>10</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="4">
         <v>11</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <f ca="1">RAND()</f>
-        <v>0.2063158072705904</v>
-      </c>
-      <c r="E11">
+        <v>0.87179304626011578</v>
+      </c>
+      <c r="E11" s="4">
         <f t="shared" ref="E11:P16" ca="1" si="0">RAND()</f>
-        <v>0.27250309642798509</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.24443151458850498</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5346053298830542E-2</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1288262163230209E-2</v>
-      </c>
-      <c r="I11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16213236479932103</v>
-      </c>
-      <c r="J11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.38360467816088761</v>
-      </c>
-      <c r="K11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6884404719163606</v>
-      </c>
-      <c r="L11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.517056841063809</v>
-      </c>
-      <c r="M11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.71799340026668312</v>
-      </c>
-      <c r="N11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.2736654291568588E-3</v>
-      </c>
-      <c r="O11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.40568399681174894</v>
-      </c>
-      <c r="P11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.54214960658772382</v>
+        <v>0.23121701871561351</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40317619732170984</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19500540520571863</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6955666830092677E-2</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80741493290116151</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40324221415470918</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7769399718455294E-2</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.58932765560812783</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16152535386938782</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84993472445004936</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98703275925296863</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0210678539623652E-2</v>
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <f t="shared" ref="D12:D16" ca="1" si="1">RAND()</f>
-        <v>0.49527764343898073</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14638380194434186</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.65113255517465873</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5739130592419156</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.49097965974710489</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.73214568619097176</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.64939217600833199</v>
-      </c>
-      <c r="K12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.37286058370603725</v>
-      </c>
-      <c r="L12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26709474468556071</v>
-      </c>
-      <c r="M12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3314347236053403E-2</v>
-      </c>
-      <c r="N12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.84647179384119375</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.47501029839038311</v>
-      </c>
-      <c r="P12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.79873626113751772</v>
+        <v>0.31281647479076546</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73073941611029458</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53810876272212593</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33454099078040611</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64138292165733146</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0728745844350489E-2</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.94370775725870271</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34272012015788611</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70999730616609613</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84073582159917304</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.9201245873513746E-2</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14090545872680238</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20446904604151905</v>
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51615464526531796</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.55613435626546537</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.19049357404442624</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.56849273697089464</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.56529794154078672</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.31789286001143047</v>
-      </c>
-      <c r="J13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72857026020722337</v>
-      </c>
-      <c r="K13">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.2404654975028433E-2</v>
-      </c>
-      <c r="L13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.18039649047372819</v>
-      </c>
-      <c r="M13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9137147960972332E-2</v>
-      </c>
-      <c r="N13">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.936317905418087E-2</v>
-      </c>
-      <c r="O13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.31950297963540897</v>
-      </c>
-      <c r="P13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.49529525598267099</v>
+        <v>0.79854613050168211</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42458970209212876</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98372517253124703</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34285975367780963</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72590190372410679</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76587038168871902</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.77326664785173416</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.55803690035800491</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49148316058868513</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.99884747163832777</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79142819397848363</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.71840043466410564</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89037938945537221</v>
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97568653138314765</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72797166099614297</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20180171617146669</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89301827595193739</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.83761743358310914</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.29891474298982335</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5032340672491538E-2</v>
-      </c>
-      <c r="K14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.24967080753029092</v>
-      </c>
-      <c r="L14">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.0439431427271262E-2</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.88439037806111298</v>
-      </c>
-      <c r="N14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.36260876611898307</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.62074825728211325</v>
-      </c>
-      <c r="P14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.93615648666000539</v>
+        <v>0.91226147604419516</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33445852284925703</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49782162648733908</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57524081160860963</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75894851263410801</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8142602066760849</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68392237235011022</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61105617479218322</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8631702537376813</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86625986702605873</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22651450615037083</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86563664075689728</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18916614917192032</v>
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94091366135903687</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.72993706065394404</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.12054245371530836</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.924560334892583E-2</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.84384684307848901</v>
-      </c>
-      <c r="I15">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.2586466631663988E-2</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4816980423673121E-3</v>
-      </c>
-      <c r="K15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.412446445032288</v>
-      </c>
-      <c r="L15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.38131327730050124</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.84613483869648176</v>
-      </c>
-      <c r="N15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.95527645860979915</v>
-      </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.37667157981009214</v>
-      </c>
-      <c r="P15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45519687060932457</v>
+        <v>7.7669835517217733E-2</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2171475359718427E-2</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.94910648460842584</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73316059321284555</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7187446178089073</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31753851074665873</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6970281604022559</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18882970163444301</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80812917891452607</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8960184054591043E-2</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13451761441262289</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67393974763181708</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62304080344368962</v>
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7061228274222655E-2</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34741479973524481</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.94002566565320167</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.80475579577271894</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.53706038014866331</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.201467618245319</v>
-      </c>
-      <c r="J16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.59502307234492979</v>
-      </c>
-      <c r="K16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.56094656879678029</v>
-      </c>
-      <c r="L16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.44522194834457884</v>
-      </c>
-      <c r="M16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.77746869468423419</v>
-      </c>
-      <c r="N16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.48688919982361312</v>
-      </c>
-      <c r="O16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16028100474248874</v>
-      </c>
-      <c r="P16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4942040690245918</v>
-      </c>
-    </row>
-    <row r="20" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="W20" t="s">
+        <v>0.60488766490490375</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26387338329669929</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19383716536738727</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36136603619040386</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1388989363897547</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24985333321910719</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8921255651578418</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39002695693303313</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37130536857345819</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13463989574697166</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29889113074296969</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33083007231541983</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.1158848899458533E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="T20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X20" t="s">
+      <c r="V20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="W20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="X20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="Y20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="Z20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="V21" t="s">
+    <row r="21" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="T21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W21" cm="1">
-        <f t="array" aca="1" ref="W21:AB26" ca="1">MMULT(D11:P16,E23:J35)</f>
-        <v>2.8803906969726447</v>
-      </c>
-      <c r="X21">
-        <f ca="1"/>
-        <v>2.5119971970616826</v>
-      </c>
-      <c r="Y21">
-        <f ca="1"/>
-        <v>2.1341177078337679</v>
-      </c>
-      <c r="Z21">
-        <f ca="1"/>
-        <v>2.6909527255500585</v>
-      </c>
-      <c r="AA21">
-        <f ca="1"/>
-        <v>2.6178582500665915</v>
-      </c>
-      <c r="AB21">
-        <f ca="1"/>
-        <v>2.4498008905756778</v>
-      </c>
-    </row>
-    <row r="22" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+      <c r="U21" s="1" cm="1">
+        <f t="array" aca="1" ref="U21:Z26" ca="1">MMULT(D11:P16,E23:J35)</f>
+        <v>3.0278579914868979</v>
+      </c>
+      <c r="V21" s="1">
+        <f ca="1"/>
+        <v>2.6014584820131983</v>
+      </c>
+      <c r="W21" s="1">
+        <f ca="1"/>
+        <v>3.8029647839452525</v>
+      </c>
+      <c r="X21" s="1">
+        <f ca="1"/>
+        <v>2.803575979983385</v>
+      </c>
+      <c r="Y21" s="1">
+        <f ca="1"/>
+        <v>2.9138996696970283</v>
+      </c>
+      <c r="Z21" s="1">
+        <f ca="1"/>
+        <v>2.7904896075729364</v>
+      </c>
+    </row>
+    <row r="22" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V22" t="s">
+      <c r="T22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W22">
-        <f ca="1"/>
-        <v>4.2714743424459902</v>
-      </c>
-      <c r="X22">
-        <f ca="1"/>
-        <v>3.4092001413101904</v>
-      </c>
-      <c r="Y22">
-        <f ca="1"/>
-        <v>3.287050982668271</v>
-      </c>
-      <c r="Z22">
-        <f ca="1"/>
-        <v>4.5376100860829744</v>
-      </c>
-      <c r="AA22">
-        <f ca="1"/>
-        <v>3.6227977922623729</v>
-      </c>
-      <c r="AB22">
-        <f ca="1"/>
-        <v>3.849471997948831</v>
-      </c>
-    </row>
-    <row r="23" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D23">
+      <c r="U22" s="1">
+        <f ca="1"/>
+        <v>3.5723881659145222</v>
+      </c>
+      <c r="V22" s="1">
+        <f ca="1"/>
+        <v>2.9528620241537635</v>
+      </c>
+      <c r="W22" s="1">
+        <f ca="1"/>
+        <v>3.723901703927873</v>
+      </c>
+      <c r="X22" s="1">
+        <f ca="1"/>
+        <v>2.9041538838769472</v>
+      </c>
+      <c r="Y22" s="1">
+        <f ca="1"/>
+        <v>2.9712754092346154</v>
+      </c>
+      <c r="Z22" s="1">
+        <f ca="1"/>
+        <v>3.3294133636894263</v>
+      </c>
+    </row>
+    <row r="23" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D23" s="3">
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
+        <f t="shared" ref="E23:J35" ca="1" si="2">RAND()</f>
+        <v>5.1001148428821974E-2</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.84823235199860592</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.40171953274609851</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.64275061283757939</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.56228845768566782</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.62817031960996017</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" s="1">
+        <f ca="1"/>
+        <v>5.6627839033014826</v>
+      </c>
+      <c r="V23" s="1">
+        <f ca="1"/>
+        <v>4.2020043298061918</v>
+      </c>
+      <c r="W23" s="1">
+        <f ca="1"/>
+        <v>5.9604499625336187</v>
+      </c>
+      <c r="X23" s="1">
+        <f ca="1"/>
+        <v>4.5059484028701124</v>
+      </c>
+      <c r="Y23" s="1">
+        <f ca="1"/>
+        <v>4.6908965248538017</v>
+      </c>
+      <c r="Z23" s="1">
+        <f ca="1"/>
+        <v>5.201575224394448</v>
+      </c>
+    </row>
+    <row r="24" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.48888514822206919</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.97690497863856063</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.55578517651881809</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.75095365069608944</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32204220977285658</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.81452874002196862</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="1">
+        <f ca="1"/>
+        <v>4.6442456437067579</v>
+      </c>
+      <c r="V24" s="1">
+        <f ca="1"/>
+        <v>3.816430771397413</v>
+      </c>
+      <c r="W24" s="1">
+        <f ca="1"/>
+        <v>5.2810291600785284</v>
+      </c>
+      <c r="X24" s="1">
+        <f ca="1"/>
+        <v>4.0757004437522006</v>
+      </c>
+      <c r="Y24" s="1">
+        <f ca="1"/>
+        <v>4.0578101952309025</v>
+      </c>
+      <c r="Z24" s="1">
+        <f ca="1"/>
+        <v>3.8489761570955703</v>
+      </c>
+    </row>
+    <row r="25" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.6350159786405879</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49560453798895621</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.31376395692130654</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.88021405827221788</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.62664414290447923</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.98305401801377135</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U25" s="1">
+        <f ca="1"/>
+        <v>4.0941626893685994</v>
+      </c>
+      <c r="V25" s="1">
+        <f ca="1"/>
+        <v>2.7486591913092262</v>
+      </c>
+      <c r="W25" s="1">
+        <f ca="1"/>
+        <v>3.626516102692074</v>
+      </c>
+      <c r="X25" s="1">
+        <f ca="1"/>
+        <v>2.9336959676618615</v>
+      </c>
+      <c r="Y25" s="1">
+        <f ca="1"/>
+        <v>2.8556748883658072</v>
+      </c>
+      <c r="Z25" s="1">
+        <f ca="1"/>
+        <v>2.9298659259649895</v>
+      </c>
+    </row>
+    <row r="26" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.60812453603619054</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.37307602221843517</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.25266767515026878</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27960757481067944</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27998375374383833</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.18335490273424526</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="1">
+        <f ca="1"/>
+        <v>2.4598250856283719</v>
+      </c>
+      <c r="V26" s="1">
+        <f ca="1"/>
+        <v>1.9033234214667969</v>
+      </c>
+      <c r="W26" s="1">
+        <f ca="1"/>
+        <v>2.4813590518796342</v>
+      </c>
+      <c r="X26" s="1">
+        <f ca="1"/>
+        <v>1.9657797396778525</v>
+      </c>
+      <c r="Y26" s="1">
+        <f ca="1"/>
+        <v>2.2842498097531823</v>
+      </c>
+      <c r="Z26" s="1">
+        <f ca="1"/>
+        <v>1.921182802866253</v>
+      </c>
+    </row>
+    <row r="27" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.77324410243811537</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32094725713119221</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.80679291847269452</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.87612067285074935</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15008053135833233</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4102444198226094</v>
+      </c>
+    </row>
+    <row r="28" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.620142979707203</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.34438726422972044</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.55862151685090367</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.91776898864365086</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.60438368368433504</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.3686176547647606E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D29" s="3">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.82361126333074874</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22324832343775647</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.45412185550331186</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.24776197736428562</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.86806708581618608</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.23867553628308114</v>
+      </c>
+    </row>
+    <row r="30" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.62600382730403326</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.11784314529159556</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.48935701260277831</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42813939741658302</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.38194909746794414</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2442908238222542</v>
+      </c>
+    </row>
+    <row r="31" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D31" s="3">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.59007290454834582</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.80741713330983056</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.92353214905716741</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.53265551944593248</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.40620098091888723</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5537971522641304</v>
+      </c>
+    </row>
+    <row r="32" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D32" s="3">
+        <v>9</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.45762692249308401</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.39441946886304358</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96533596062600902</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.18051101351404009</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.68800110714609974</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.84520965722010566</v>
+      </c>
+    </row>
+    <row r="33" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D33" s="3">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.70496987894464336</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.9851617618614923E-2</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99071898149171056</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.38795779218848747</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.41364119529894938</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.90112830257677867</v>
+      </c>
+    </row>
+    <row r="34" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D34" s="3">
+        <v>11</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.55935419768963157</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.36020241960749733</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.90361234747571451</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.1112606004986367E-2</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.47301446973092032</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22779250157387998</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="U34" s="6">
+        <v>0</v>
+      </c>
+      <c r="V34" s="6">
+        <v>1</v>
+      </c>
+      <c r="W34" s="6">
+        <v>2</v>
+      </c>
+      <c r="X34" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>5</v>
+      </c>
+      <c r="AA34" s="6">
+        <v>6</v>
+      </c>
+      <c r="AB34" s="6">
+        <v>7</v>
+      </c>
+      <c r="AC34" s="6">
+        <v>8</v>
+      </c>
+      <c r="AD34" s="6">
+        <v>9</v>
+      </c>
+      <c r="AE34" s="6">
+        <v>10</v>
+      </c>
+      <c r="AF34" s="6">
+        <v>11</v>
+      </c>
+      <c r="AG34" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="D35" s="3">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.95685313731928423</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.72612834662457182</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.58324303383442855</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.16002687951305794</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42955187180472709</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.77098603350932682</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U35" s="6" cm="1">
+        <f t="array" aca="1" ref="U35:AG40" ca="1">MMULT(U21:Z26,D40:P45)</f>
+        <v>9.1403148976676238</v>
+      </c>
+      <c r="V35" s="6">
+        <f ca="1"/>
+        <v>9.7585056617170505</v>
+      </c>
+      <c r="W35" s="6">
+        <f ca="1"/>
+        <v>8.8974200871549662</v>
+      </c>
+      <c r="X35" s="6">
+        <f ca="1"/>
+        <v>9.3469872712786888</v>
+      </c>
+      <c r="Y35" s="6">
+        <f ca="1"/>
+        <v>7.9718087453235889</v>
+      </c>
+      <c r="Z35" s="6">
+        <f ca="1"/>
+        <v>11.643134155072175</v>
+      </c>
+      <c r="AA35" s="6">
+        <f ca="1"/>
+        <v>10.304710256081156</v>
+      </c>
+      <c r="AB35" s="6">
+        <f ca="1"/>
+        <v>8.5557742342052592</v>
+      </c>
+      <c r="AC35" s="6">
+        <f ca="1"/>
+        <v>10.088063701513226</v>
+      </c>
+      <c r="AD35" s="6">
+        <f ca="1"/>
+        <v>11.370613227293713</v>
+      </c>
+      <c r="AE35" s="6">
+        <f ca="1"/>
+        <v>8.3234051337412254</v>
+      </c>
+      <c r="AF35" s="6">
+        <f ca="1"/>
+        <v>12.939914198663018</v>
+      </c>
+      <c r="AG35" s="6">
+        <f ca="1"/>
+        <v>7.057367120403061</v>
+      </c>
+    </row>
+    <row r="36" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="T36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U36" s="6">
+        <f ca="1"/>
+        <v>10.011517972660169</v>
+      </c>
+      <c r="V36" s="6">
+        <f ca="1"/>
+        <v>10.424109849387452</v>
+      </c>
+      <c r="W36" s="6">
+        <f ca="1"/>
+        <v>9.2716753908131508</v>
+      </c>
+      <c r="X36" s="6">
+        <f ca="1"/>
+        <v>10.054111602694288</v>
+      </c>
+      <c r="Y36" s="6">
+        <f ca="1"/>
+        <v>8.9105087686529245</v>
+      </c>
+      <c r="Z36" s="6">
+        <f ca="1"/>
+        <v>12.478108317597702</v>
+      </c>
+      <c r="AA36" s="6">
+        <f ca="1"/>
+        <v>11.165015467274127</v>
+      </c>
+      <c r="AB36" s="6">
+        <f ca="1"/>
+        <v>9.2553795321616494</v>
+      </c>
+      <c r="AC36" s="6">
+        <f ca="1"/>
+        <v>11.163915786876981</v>
+      </c>
+      <c r="AD36" s="6">
+        <f ca="1"/>
+        <v>12.668227715706854</v>
+      </c>
+      <c r="AE36" s="6">
+        <f ca="1"/>
+        <v>8.9405556329245304</v>
+      </c>
+      <c r="AF36" s="6">
+        <f ca="1"/>
+        <v>13.837764271581928</v>
+      </c>
+      <c r="AG36" s="6">
+        <f ca="1"/>
+        <v>7.9838203442605558</v>
+      </c>
+    </row>
+    <row r="37" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="T37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U37" s="6">
+        <f ca="1"/>
+        <v>15.544073224014689</v>
+      </c>
+      <c r="V37" s="6">
+        <f ca="1"/>
+        <v>16.164283209967898</v>
+      </c>
+      <c r="W37" s="6">
+        <f ca="1"/>
+        <v>14.548565953374942</v>
+      </c>
+      <c r="X37" s="6">
+        <f ca="1"/>
+        <v>15.532751486134028</v>
+      </c>
+      <c r="Y37" s="6">
+        <f ca="1"/>
+        <v>13.737518505040192</v>
+      </c>
+      <c r="Z37" s="6">
+        <f ca="1"/>
+        <v>19.247843340221202</v>
+      </c>
+      <c r="AA37" s="6">
+        <f ca="1"/>
+        <v>17.352047698280565</v>
+      </c>
+      <c r="AB37" s="6">
+        <f ca="1"/>
+        <v>14.327864298764956</v>
+      </c>
+      <c r="AC37" s="6">
+        <f ca="1"/>
+        <v>17.272449043322531</v>
+      </c>
+      <c r="AD37" s="6">
+        <f ca="1"/>
+        <v>19.55738547239692</v>
+      </c>
+      <c r="AE37" s="6">
+        <f ca="1"/>
+        <v>13.864152739802471</v>
+      </c>
+      <c r="AF37" s="6">
+        <f ca="1"/>
+        <v>21.635963554949424</v>
+      </c>
+      <c r="AG37" s="6">
+        <f ca="1"/>
+        <v>12.317965348187386</v>
+      </c>
+    </row>
+    <row r="38" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="T38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="6">
+        <f ca="1"/>
+        <v>13.246951375941435</v>
+      </c>
+      <c r="V38" s="6">
+        <f ca="1"/>
+        <v>13.911885084266704</v>
+      </c>
+      <c r="W38" s="6">
+        <f ca="1"/>
+        <v>12.502097860689707</v>
+      </c>
+      <c r="X38" s="6">
+        <f ca="1"/>
+        <v>13.38328589623066</v>
+      </c>
+      <c r="Y38" s="6">
+        <f ca="1"/>
+        <v>11.557570237978773</v>
+      </c>
+      <c r="Z38" s="6">
+        <f ca="1"/>
+        <v>16.496028203732351</v>
+      </c>
+      <c r="AA38" s="6">
+        <f ca="1"/>
+        <v>14.600911245961088</v>
+      </c>
+      <c r="AB38" s="6">
+        <f ca="1"/>
+        <v>12.33163927958115</v>
+      </c>
+      <c r="AC38" s="6">
+        <f ca="1"/>
+        <v>14.60180292757353</v>
+      </c>
+      <c r="AD38" s="6">
+        <f ca="1"/>
+        <v>16.372152019005114</v>
+      </c>
+      <c r="AE38" s="6">
+        <f ca="1"/>
+        <v>11.952258584833434</v>
+      </c>
+      <c r="AF38" s="6">
+        <f ca="1"/>
+        <v>18.567553824244865</v>
+      </c>
+      <c r="AG38" s="6">
+        <f ca="1"/>
+        <v>10.39911406952098</v>
+      </c>
+    </row>
+    <row r="39" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>2</v>
+      </c>
+      <c r="G39" s="5">
+        <v>3</v>
+      </c>
+      <c r="H39" s="5">
+        <v>4</v>
+      </c>
+      <c r="I39" s="5">
+        <v>5</v>
+      </c>
+      <c r="J39" s="5">
+        <v>6</v>
+      </c>
+      <c r="K39" s="5">
+        <v>7</v>
+      </c>
+      <c r="L39" s="5">
+        <v>8</v>
+      </c>
+      <c r="M39" s="5">
+        <v>9</v>
+      </c>
+      <c r="N39" s="5">
+        <v>10</v>
+      </c>
+      <c r="O39" s="5">
+        <v>11</v>
+      </c>
+      <c r="P39" s="5">
+        <v>12</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U39" s="6">
+        <f ca="1"/>
+        <v>10.113252359804209</v>
+      </c>
+      <c r="V39" s="6">
+        <f ca="1"/>
+        <v>10.127662051749862</v>
+      </c>
+      <c r="W39" s="6">
+        <f ca="1"/>
+        <v>8.925214377565112</v>
+      </c>
+      <c r="X39" s="6">
+        <f ca="1"/>
+        <v>9.8186245965819072</v>
+      </c>
+      <c r="Y39" s="6">
+        <f ca="1"/>
+        <v>8.8414417050513681</v>
+      </c>
+      <c r="Z39" s="6">
+        <f ca="1"/>
+        <v>11.870115316189159</v>
+      </c>
+      <c r="AA39" s="6">
+        <f ca="1"/>
+        <v>10.741911902151516</v>
+      </c>
+      <c r="AB39" s="6">
+        <f ca="1"/>
+        <v>9.1994649500192303</v>
+      </c>
+      <c r="AC39" s="6">
+        <f ca="1"/>
+        <v>11.145034247086166</v>
+      </c>
+      <c r="AD39" s="6">
+        <f ca="1"/>
+        <v>12.449221500286479</v>
+      </c>
+      <c r="AE39" s="6">
+        <f ca="1"/>
+        <v>8.8767414275576382</v>
+      </c>
+      <c r="AF39" s="6">
+        <f ca="1"/>
+        <v>13.835576651257119</v>
+      </c>
+      <c r="AG39" s="6">
+        <f ca="1"/>
+        <v>8.2245520655113999</v>
+      </c>
+    </row>
+    <row r="40" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
         <f ca="1">RAND()</f>
-        <v>0.95964481463520046</v>
-      </c>
-      <c r="F23">
-        <f ca="1">RAND()</f>
-        <v>0.91391514478935076</v>
-      </c>
-      <c r="G23">
-        <f ca="1">RAND()</f>
-        <v>0.53689587127874094</v>
-      </c>
-      <c r="H23">
-        <f ca="1">RAND()</f>
-        <v>0.77308885668409555</v>
-      </c>
-      <c r="I23">
-        <f ca="1">RAND()</f>
-        <v>0.32359414785955043</v>
-      </c>
-      <c r="J23">
-        <f ca="1">RAND()</f>
-        <v>0.9861143706168356</v>
-      </c>
-      <c r="V23" t="s">
+        <v>0.82492296734378512</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" ref="E40:P45" ca="1" si="3">RAND()</f>
+        <v>0.21076273443092031</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.10765414270473161</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.30003271839417944</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.60595425112089896</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.235659540734571E-2</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.37720629331018141</v>
+      </c>
+      <c r="K40" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.48548058954349049</v>
+      </c>
+      <c r="L40" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.81820137605758936</v>
+      </c>
+      <c r="M40" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.80648113156841961</v>
+      </c>
+      <c r="N40" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.48667901433689364</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.80682316445157543</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.96210612485962999</v>
+      </c>
+      <c r="T40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U40" s="6">
+        <f ca="1"/>
+        <v>6.8898271422146378</v>
+      </c>
+      <c r="V40" s="6">
+        <f ca="1"/>
+        <v>6.9940979511634556</v>
+      </c>
+      <c r="W40" s="6">
+        <f ca="1"/>
+        <v>6.2936898615263557</v>
+      </c>
+      <c r="X40" s="6">
+        <f ca="1"/>
+        <v>6.7480896491668814</v>
+      </c>
+      <c r="Y40" s="6">
+        <f ca="1"/>
+        <v>5.8864907513258711</v>
+      </c>
+      <c r="Z40" s="6">
+        <f ca="1"/>
+        <v>8.3065066193151011</v>
+      </c>
+      <c r="AA40" s="6">
+        <f ca="1"/>
+        <v>7.4150068853735558</v>
+      </c>
+      <c r="AB40" s="6">
+        <f ca="1"/>
+        <v>6.2675770847643584</v>
+      </c>
+      <c r="AC40" s="6">
+        <f ca="1"/>
+        <v>7.5466892095624143</v>
+      </c>
+      <c r="AD40" s="6">
+        <f ca="1"/>
+        <v>8.4812002519359062</v>
+      </c>
+      <c r="AE40" s="6">
+        <f ca="1"/>
+        <v>6.1313611574552631</v>
+      </c>
+      <c r="AF40" s="6">
+        <f ca="1"/>
+        <v>9.423599673997046</v>
+      </c>
+      <c r="AG40" s="6">
+        <f ca="1"/>
+        <v>5.2730006391276349</v>
+      </c>
+    </row>
+    <row r="41" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" ref="D41:D45" ca="1" si="4">RAND()</f>
+        <v>0.53288360189660777</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.51408172701118438</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.27997573069867676</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.63984981965274679</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.57589313775969098</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.8650386675291688</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.64842582215836253</v>
+      </c>
+      <c r="K41" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.54045275443478813</v>
+      </c>
+      <c r="L41" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.66325050888102377</v>
+      </c>
+      <c r="M41" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.85944695912215796</v>
+      </c>
+      <c r="N41" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.56609986767514686</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45142205203637153</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.61281089989350435</v>
+      </c>
+    </row>
+    <row r="42" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C42" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W23">
-        <f ca="1"/>
-        <v>2.8538948843749461</v>
-      </c>
-      <c r="X23">
-        <f ca="1"/>
-        <v>2.6903587107964468</v>
-      </c>
-      <c r="Y23">
-        <f ca="1"/>
-        <v>2.4341542596290084</v>
-      </c>
-      <c r="Z23">
-        <f ca="1"/>
-        <v>3.2036147164895938</v>
-      </c>
-      <c r="AA23">
-        <f ca="1"/>
-        <v>2.1473732457811239</v>
-      </c>
-      <c r="AB23">
-        <f ca="1"/>
-        <v>2.5319569272165636</v>
-      </c>
-    </row>
-    <row r="24" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <f ca="1">RAND()</f>
-        <v>0.44845726527518037</v>
-      </c>
-      <c r="F24">
-        <f ca="1">RAND()</f>
-        <v>0.86003152923574044</v>
-      </c>
-      <c r="G24">
-        <f ca="1">RAND()</f>
-        <v>0.84650744663932453</v>
-      </c>
-      <c r="H24">
-        <f ca="1">RAND()</f>
-        <v>0.978516546076028</v>
-      </c>
-      <c r="I24">
-        <f ca="1">RAND()</f>
-        <v>0.40403416768574874</v>
-      </c>
-      <c r="J24">
-        <f ca="1">RAND()</f>
-        <v>0.66269731674572807</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="D42" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.18868013591821331</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.49992602093567184</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.97142667285801609</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.42772996243860084</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.4662400483702522E-2</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.62344643286827084</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.76413602919520529</v>
+      </c>
+      <c r="K42" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.32192706070824506</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.11827587924255212</v>
+      </c>
+      <c r="M42" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.13287596371891919</v>
+      </c>
+      <c r="N42" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4491198565036747</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.84004608135725412</v>
+      </c>
+      <c r="P42" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.19923861105539697</v>
+      </c>
+    </row>
+    <row r="43" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="W24">
-        <f ca="1"/>
-        <v>4.4289864449415273</v>
-      </c>
-      <c r="X24">
-        <f ca="1"/>
-        <v>4.8306791959689086</v>
-      </c>
-      <c r="Y24">
-        <f ca="1"/>
-        <v>3.5952481252697468</v>
-      </c>
-      <c r="Z24">
-        <f ca="1"/>
-        <v>4.7165331298784627</v>
-      </c>
-      <c r="AA24">
-        <f ca="1"/>
-        <v>3.480954106371267</v>
-      </c>
-      <c r="AB24">
-        <f ca="1"/>
-        <v>4.5960778983541397</v>
-      </c>
-    </row>
-    <row r="25" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <f ca="1">RAND()</f>
-        <v>0.88006482327619229</v>
-      </c>
-      <c r="F25">
-        <f ca="1">RAND()</f>
-        <v>0.17465381767897525</v>
-      </c>
-      <c r="G25">
-        <f ca="1">RAND()</f>
-        <v>0.39244601202835927</v>
-      </c>
-      <c r="H25">
-        <f ca="1">RAND()</f>
-        <v>0.27609502901575478</v>
-      </c>
-      <c r="I25">
-        <f ca="1">RAND()</f>
-        <v>0.91622412372246365</v>
-      </c>
-      <c r="J25">
-        <f ca="1">RAND()</f>
-        <v>0.48983974772868033</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="D43" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.44225732733792367</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.92935559367099541</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.24114162225266533</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.8013398192611918</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.63454230346597973</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.78819106776444048</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.227975374286185E-2</v>
+      </c>
+      <c r="K43" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.70597504070967143</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.5694626425138779</v>
+      </c>
+      <c r="M43" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.35603572709760278</v>
+      </c>
+      <c r="N43" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.33757168249307357</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.83724594157498078</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.32437864221999979</v>
+      </c>
+    </row>
+    <row r="44" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C44" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="W25">
-        <f ca="1"/>
-        <v>4.0298734889105248</v>
-      </c>
-      <c r="X25">
-        <f ca="1"/>
-        <v>4.4577620134733831</v>
-      </c>
-      <c r="Y25">
-        <f ca="1"/>
-        <v>3.4848461677818729</v>
-      </c>
-      <c r="Z25">
-        <f ca="1"/>
-        <v>4.2784463725158242</v>
-      </c>
-      <c r="AA25">
-        <f ca="1"/>
-        <v>3.0958012912171702</v>
-      </c>
-      <c r="AB25">
-        <f ca="1"/>
-        <v>4.573239378404538</v>
-      </c>
-    </row>
-    <row r="26" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <f ca="1">RAND()</f>
-        <v>0.67488590211869715</v>
-      </c>
-      <c r="F26">
-        <f ca="1">RAND()</f>
-        <v>0.32488417499682354</v>
-      </c>
-      <c r="G26">
-        <f ca="1">RAND()</f>
-        <v>1.4855764572353714E-2</v>
-      </c>
-      <c r="H26">
-        <f ca="1">RAND()</f>
-        <v>0.92868283810710728</v>
-      </c>
-      <c r="I26">
-        <f ca="1">RAND()</f>
-        <v>0.11250658032331129</v>
-      </c>
-      <c r="J26">
-        <f ca="1">RAND()</f>
-        <v>0.14300602603229462</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="D44" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.85463066793627829</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.62625941000913166</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.79323765958839532</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.57004718931201803</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.32710872259632462</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.84417712909043274</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.75360330204745629</v>
+      </c>
+      <c r="K44" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.55100938202738314</v>
+      </c>
+      <c r="L44" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.77581128311805425</v>
+      </c>
+      <c r="M44" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.93211846465595338</v>
+      </c>
+      <c r="N44" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.73423917069298028</v>
+      </c>
+      <c r="O44" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.88659173018461435</v>
+      </c>
+      <c r="P44" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5209733630470197E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C45" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="W26">
-        <f ca="1"/>
-        <v>4.3791920949518488</v>
-      </c>
-      <c r="X26">
-        <f ca="1"/>
-        <v>3.4332236478342391</v>
-      </c>
-      <c r="Y26">
-        <f ca="1"/>
-        <v>2.8842855899446667</v>
-      </c>
-      <c r="Z26">
-        <f ca="1"/>
-        <v>4.1632002956592782</v>
-      </c>
-      <c r="AA26">
-        <f ca="1"/>
-        <v>3.6194354240919706</v>
-      </c>
-      <c r="AB26">
-        <f ca="1"/>
-        <v>3.4948480483886306</v>
-      </c>
-    </row>
-    <row r="27" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <f ca="1">RAND()</f>
-        <v>0.20184885946480968</v>
-      </c>
-      <c r="F27">
-        <f ca="1">RAND()</f>
-        <v>0.91175290435273137</v>
-      </c>
-      <c r="G27">
-        <f ca="1">RAND()</f>
-        <v>0.58658978039221299</v>
-      </c>
-      <c r="H27">
-        <f ca="1">RAND()</f>
-        <v>0.46247270433146115</v>
-      </c>
-      <c r="I27">
-        <f ca="1">RAND()</f>
-        <v>3.9103158904432389E-2</v>
-      </c>
-      <c r="J27">
-        <f ca="1">RAND()</f>
-        <v>0.77290183131602075</v>
-      </c>
-    </row>
-    <row r="28" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <f ca="1">RAND()</f>
-        <v>0.71204307604177985</v>
-      </c>
-      <c r="F28">
-        <f ca="1">RAND()</f>
-        <v>9.0071520639666058E-2</v>
-      </c>
-      <c r="G28">
-        <f ca="1">RAND()</f>
-        <v>0.74225107135311352</v>
-      </c>
-      <c r="H28">
-        <f ca="1">RAND()</f>
-        <v>0.98402472305693389</v>
-      </c>
-      <c r="I28">
-        <f ca="1">RAND()</f>
-        <v>0.85528191655247454</v>
-      </c>
-      <c r="J28">
-        <f ca="1">RAND()</f>
-        <v>0.86299605249827327</v>
-      </c>
-    </row>
-    <row r="29" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <f ca="1">RAND()</f>
-        <v>0.84760062028647609</v>
-      </c>
-      <c r="F29">
-        <f ca="1">RAND()</f>
-        <v>0.46653113111743705</v>
-      </c>
-      <c r="G29">
-        <f ca="1">RAND()</f>
-        <v>0.456978349085847</v>
-      </c>
-      <c r="H29">
-        <f ca="1">RAND()</f>
-        <v>0.73743513500090185</v>
-      </c>
-      <c r="I29">
-        <f ca="1">RAND()</f>
-        <v>0.66836214261320315</v>
-      </c>
-      <c r="J29">
-        <f ca="1">RAND()</f>
-        <v>9.6181245644726077E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D30">
-        <v>7</v>
-      </c>
-      <c r="E30">
-        <f ca="1">RAND()</f>
-        <v>0.45204536452514832</v>
-      </c>
-      <c r="F30">
-        <f ca="1">RAND()</f>
-        <v>0.94234672204932812</v>
-      </c>
-      <c r="G30">
-        <f ca="1">RAND()</f>
-        <v>2.8734908076028853E-2</v>
-      </c>
-      <c r="H30">
-        <f ca="1">RAND()</f>
-        <v>0.95038204109258606</v>
-      </c>
-      <c r="I30">
-        <f ca="1">RAND()</f>
-        <v>0.2613277322785893</v>
-      </c>
-      <c r="J30">
-        <f ca="1">RAND()</f>
-        <v>0.27337162104806856</v>
-      </c>
-    </row>
-    <row r="31" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D31">
-        <v>8</v>
-      </c>
-      <c r="E31">
-        <f ca="1">RAND()</f>
-        <v>0.94587148775140284</v>
-      </c>
-      <c r="F31">
-        <f ca="1">RAND()</f>
-        <v>7.1734186795688881E-3</v>
-      </c>
-      <c r="G31">
-        <f ca="1">RAND()</f>
-        <v>0.89530778897824281</v>
-      </c>
-      <c r="H31">
-        <f ca="1">RAND()</f>
-        <v>0.73858910374494469</v>
-      </c>
-      <c r="I31">
-        <f ca="1">RAND()</f>
-        <v>0.57266150929815529</v>
-      </c>
-      <c r="J31">
-        <f ca="1">RAND()</f>
-        <v>0.88998828013019637</v>
-      </c>
-    </row>
-    <row r="32" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D32">
-        <v>9</v>
-      </c>
-      <c r="E32">
-        <f ca="1">RAND()</f>
-        <v>0.96180692254729239</v>
-      </c>
-      <c r="F32">
-        <f ca="1">RAND()</f>
-        <v>0.7731146339605125</v>
-      </c>
-      <c r="G32">
-        <f ca="1">RAND()</f>
-        <v>0.46125073486675394</v>
-      </c>
-      <c r="H32">
-        <f ca="1">RAND()</f>
-        <v>0.42230854878951918</v>
-      </c>
-      <c r="I32">
-        <f ca="1">RAND()</f>
-        <v>0.97239807961268265</v>
-      </c>
-      <c r="J32">
-        <f ca="1">RAND()</f>
-        <v>0.81476624823250943</v>
-      </c>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <f ca="1">RAND()</f>
-        <v>0.75726290608496427</v>
-      </c>
-      <c r="F33">
-        <f ca="1">RAND()</f>
-        <v>0.59085726603094779</v>
-      </c>
-      <c r="G33">
-        <f ca="1">RAND()</f>
-        <v>0.56411484217295105</v>
-      </c>
-      <c r="H33">
-        <f ca="1">RAND()</f>
-        <v>0.95978133278595867</v>
-      </c>
-      <c r="I33">
-        <f ca="1">RAND()</f>
-        <v>0.6211579065709445</v>
-      </c>
-      <c r="J33">
-        <f ca="1">RAND()</f>
-        <v>0.85502607911649875</v>
-      </c>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <v>11</v>
-      </c>
-      <c r="E34">
-        <f ca="1">RAND()</f>
-        <v>0.47870835632081588</v>
-      </c>
-      <c r="F34">
-        <f ca="1">RAND()</f>
-        <v>0.49558268215705681</v>
-      </c>
-      <c r="G34">
-        <f ca="1">RAND()</f>
-        <v>0.58189273720592671</v>
-      </c>
-      <c r="H34">
-        <f ca="1">RAND()</f>
-        <v>0.55405674380166869</v>
-      </c>
-      <c r="I34">
-        <f ca="1">RAND()</f>
-        <v>0.59532600091214349</v>
-      </c>
-      <c r="J34">
-        <f ca="1">RAND()</f>
-        <v>0.33886796186874668</v>
-      </c>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D35">
-        <v>12</v>
-      </c>
-      <c r="E35">
-        <f ca="1">RAND()</f>
-        <v>0.37175959093336275</v>
-      </c>
-      <c r="F35">
-        <f ca="1">RAND()</f>
-        <v>0.76971846853913761</v>
-      </c>
-      <c r="G35">
-        <f ca="1">RAND()</f>
-        <v>0.6198112716846641</v>
-      </c>
-      <c r="H35">
-        <f ca="1">RAND()</f>
-        <v>0.29979175212739262</v>
-      </c>
-      <c r="I35">
-        <f ca="1">RAND()</f>
-        <v>0.73978650226199349</v>
-      </c>
-      <c r="J35">
-        <f ca="1">RAND()</f>
-        <v>0.6936614354546341</v>
+      <c r="D45" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.28974728202715816</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.52012614538930158</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.41617719953601151</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.44424773822546482</v>
+      </c>
+      <c r="H45" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.60880875096924736</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.79698429354785683</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.81825237439009979</v>
+      </c>
+      <c r="K45" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.31203289529049105</v>
+      </c>
+      <c r="L45" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.56559265758814692</v>
+      </c>
+      <c r="M45" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.88632897620829632</v>
+      </c>
+      <c r="N45" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.20900660274969907</v>
+      </c>
+      <c r="O45" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.42903757025382605</v>
+      </c>
+      <c r="P45" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.31603798784682424</v>
       </c>
     </row>
   </sheetData>

--- a/tokenizer/PE.xlsx
+++ b/tokenizer/PE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deep\Documents\GitHub\Transformer-from-scratch\tokenizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66EA66E-DAB5-47A5-924C-655458088AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E992077-AFFA-4F33-9567-001F2EAE939A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09AE8E6-2092-40AB-AA2F-D4CEB2FD7284}">
   <dimension ref="C10:AG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35:AE35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1145,55 +1145,55 @@
       </c>
       <c r="D11" s="4">
         <f ca="1">RAND()</f>
-        <v>0.87179304626011578</v>
+        <v>0.72250529291225174</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ref="E11:P16" ca="1" si="0">RAND()</f>
-        <v>0.23121701871561351</v>
+        <v>0.44079160893123392</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40317619732170984</v>
+        <v>0.15958453361572122</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19500540520571863</v>
+        <v>0.23538591057530056</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6955666830092677E-2</v>
+        <v>0.37633462954612718</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80741493290116151</v>
+        <v>0.14664352143337123</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40324221415470918</v>
+        <v>0.36608458322002679</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7769399718455294E-2</v>
+        <v>0.43407475001753504</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58932765560812783</v>
+        <v>0.7926299747051726</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16152535386938782</v>
+        <v>0.39239069724293951</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84993472445004936</v>
+        <v>3.7473927608600022E-3</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98703275925296863</v>
+        <v>4.3233156110203952E-2</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0210678539623652E-2</v>
+        <v>0.66640349758182105</v>
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
@@ -1202,55 +1202,55 @@
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D16" ca="1" si="1">RAND()</f>
-        <v>0.31281647479076546</v>
+        <v>4.9071799433473173E-2</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73073941611029458</v>
+        <v>0.55320052094782979</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53810876272212593</v>
+        <v>0.52113546689038426</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33454099078040611</v>
+        <v>0.3219293000182728</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64138292165733146</v>
+        <v>0.8530878750742964</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0728745844350489E-2</v>
+        <v>0.7609050045324357</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94370775725870271</v>
+        <v>0.23501874965820968</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34272012015788611</v>
+        <v>0.97365585220456552</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70999730616609613</v>
+        <v>0.29421102401675314</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84073582159917304</v>
+        <v>0.74666829758135067</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9201245873513746E-2</v>
+        <v>0.40754758007795422</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14090545872680238</v>
+        <v>5.2834077144151226E-2</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20446904604151905</v>
+        <v>0.202015780241521</v>
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
@@ -1259,55 +1259,55 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79854613050168211</v>
+        <v>0.88595243513233568</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42458970209212876</v>
+        <v>0.80214108177846932</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98372517253124703</v>
+        <v>0.3255279719848625</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34285975367780963</v>
+        <v>0.70186908307837703</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72590190372410679</v>
+        <v>0.34636987583781231</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76587038168871902</v>
+        <v>0.25216472803344081</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77326664785173416</v>
+        <v>4.4924549263486435E-3</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55803690035800491</v>
+        <v>6.5011146617101612E-2</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49148316058868513</v>
+        <v>0.69924169700727457</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99884747163832777</v>
+        <v>0.81431620645409619</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79142819397848363</v>
+        <v>0.8658088799841871</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71840043466410564</v>
+        <v>0.26061947882633518</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89037938945537221</v>
+        <v>0.29138561721614598</v>
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
@@ -1316,55 +1316,55 @@
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91226147604419516</v>
+        <v>0.744025714548744</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33445852284925703</v>
+        <v>0.24453519365913434</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49782162648733908</v>
+        <v>4.2211793201173076E-2</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57524081160860963</v>
+        <v>0.24706057264388281</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75894851263410801</v>
+        <v>0.32262819822322808</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8142602066760849</v>
+        <v>0.32829107539163704</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68392237235011022</v>
+        <v>0.8421201051856001</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61105617479218322</v>
+        <v>0.44356512079019061</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8631702537376813</v>
+        <v>0.6601296308138751</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86625986702605873</v>
+        <v>0.21215131127866615</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22651450615037083</v>
+        <v>0.63977907627352215</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86563664075689728</v>
+        <v>0.90804592487215585</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18916614917192032</v>
+        <v>0.25553662418661227</v>
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
@@ -1373,55 +1373,55 @@
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7669835517217733E-2</v>
+        <v>0.54419870537500414</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2171475359718427E-2</v>
+        <v>0.4743129112118748</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94910648460842584</v>
+        <v>0.66031584702212298</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73316059321284555</v>
+        <v>0.65701551652869405</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7187446178089073</v>
+        <v>0.21998662043593764</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31753851074665873</v>
+        <v>0.26361032389319661</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6970281604022559</v>
+        <v>0.80209430693940043</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18882970163444301</v>
+        <v>0.41674135456083816</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80812917891452607</v>
+        <v>0.47093541296399544</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8960184054591043E-2</v>
+        <v>0.92457349324155025</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13451761441262289</v>
+        <v>0.40986590952893698</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67393974763181708</v>
+        <v>0.50770481302454562</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62304080344368962</v>
+        <v>0.14975010746330608</v>
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
@@ -1430,55 +1430,55 @@
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60488766490490375</v>
+        <v>0.54041556450399753</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26387338329669929</v>
+        <v>0.21522936721045249</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19383716536738727</v>
+        <v>6.6012594701154725E-3</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36136603619040386</v>
+        <v>0.12674110158216212</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1388989363897547</v>
+        <v>0.82114735686232354</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24985333321910719</v>
+        <v>3.826856948781987E-2</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8921255651578418</v>
+        <v>7.2515175831768364E-2</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39002695693303313</v>
+        <v>0.72716872050804482</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37130536857345819</v>
+        <v>0.93058535988864532</v>
       </c>
       <c r="M16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13463989574697166</v>
+        <v>0.58080221742601756</v>
       </c>
       <c r="N16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29889113074296969</v>
+        <v>0.9194150891336913</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33083007231541983</v>
+        <v>0.91201136993402943</v>
       </c>
       <c r="P16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1158848899458533E-2</v>
+        <v>0.29181803870010514</v>
       </c>
     </row>
     <row r="20" spans="4:26" x14ac:dyDescent="0.25">
@@ -1510,27 +1510,27 @@
       </c>
       <c r="U21" s="1" cm="1">
         <f t="array" aca="1" ref="U21:Z26" ca="1">MMULT(D11:P16,E23:J35)</f>
-        <v>3.0278579914868979</v>
+        <v>3.2979240193188395</v>
       </c>
       <c r="V21" s="1">
         <f ca="1"/>
-        <v>2.6014584820131983</v>
+        <v>2.3641643499998271</v>
       </c>
       <c r="W21" s="1">
         <f ca="1"/>
-        <v>3.8029647839452525</v>
+        <v>2.6827811466786282</v>
       </c>
       <c r="X21" s="1">
         <f ca="1"/>
-        <v>2.803575979983385</v>
+        <v>2.7662911803567072</v>
       </c>
       <c r="Y21" s="1">
         <f ca="1"/>
-        <v>2.9138996696970283</v>
+        <v>2.6966587894157881</v>
       </c>
       <c r="Z21" s="1">
         <f ca="1"/>
-        <v>2.7904896075729364</v>
+        <v>2.7526659393282769</v>
       </c>
     </row>
     <row r="22" spans="4:26" x14ac:dyDescent="0.25">
@@ -1560,27 +1560,27 @@
       </c>
       <c r="U22" s="1">
         <f ca="1"/>
-        <v>3.5723881659145222</v>
+        <v>4.1856037647824591</v>
       </c>
       <c r="V22" s="1">
         <f ca="1"/>
-        <v>2.9528620241537635</v>
+        <v>3.4303825830053052</v>
       </c>
       <c r="W22" s="1">
         <f ca="1"/>
-        <v>3.723901703927873</v>
+        <v>3.0206617413669021</v>
       </c>
       <c r="X22" s="1">
         <f ca="1"/>
-        <v>2.9041538838769472</v>
+        <v>3.1872160179093743</v>
       </c>
       <c r="Y22" s="1">
         <f ca="1"/>
-        <v>2.9712754092346154</v>
+        <v>3.7276907788832858</v>
       </c>
       <c r="Z22" s="1">
         <f ca="1"/>
-        <v>3.3294133636894263</v>
+        <v>2.9870292074210516</v>
       </c>
     </row>
     <row r="23" spans="4:26" x14ac:dyDescent="0.25">
@@ -1589,54 +1589,54 @@
       </c>
       <c r="E23" s="3">
         <f t="shared" ref="E23:J35" ca="1" si="2">RAND()</f>
-        <v>5.1001148428821974E-2</v>
+        <v>0.72814763240658942</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84823235199860592</v>
+        <v>0.94729214747439128</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40171953274609851</v>
+        <v>0.80244921826329374</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64275061283757939</v>
+        <v>0.82460537060210803</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56228845768566782</v>
+        <v>0.8079501330936566</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62817031960996017</v>
+        <v>0.62126589133036758</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="U23" s="1">
         <f ca="1"/>
-        <v>5.6627839033014826</v>
+        <v>4.4060342224749656</v>
       </c>
       <c r="V23" s="1">
         <f ca="1"/>
-        <v>4.2020043298061918</v>
+        <v>3.6655329275693123</v>
       </c>
       <c r="W23" s="1">
         <f ca="1"/>
-        <v>5.9604499625336187</v>
+        <v>4.0475864668519721</v>
       </c>
       <c r="X23" s="1">
         <f ca="1"/>
-        <v>4.5059484028701124</v>
+        <v>4.3813292295059094</v>
       </c>
       <c r="Y23" s="1">
         <f ca="1"/>
-        <v>4.6908965248538017</v>
+        <v>3.6418292362072195</v>
       </c>
       <c r="Z23" s="1">
         <f ca="1"/>
-        <v>5.201575224394448</v>
+        <v>3.654822884757444</v>
       </c>
     </row>
     <row r="24" spans="4:26" x14ac:dyDescent="0.25">
@@ -1645,54 +1645,54 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48888514822206919</v>
+        <v>0.98986325450375612</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97690497863856063</v>
+        <v>0.26571458742892828</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55578517651881809</v>
+        <v>0.6273028457112636</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75095365069608944</v>
+        <v>0.93449844333950738</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32204220977285658</v>
+        <v>0.63327424167643254</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81452874002196862</v>
+        <v>0.15658942820433919</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U24" s="1">
         <f ca="1"/>
-        <v>4.6442456437067579</v>
+        <v>3.9941600834358293</v>
       </c>
       <c r="V24" s="1">
         <f ca="1"/>
-        <v>3.816430771397413</v>
+        <v>3.577135023850762</v>
       </c>
       <c r="W24" s="1">
         <f ca="1"/>
-        <v>5.2810291600785284</v>
+        <v>3.5052235477277502</v>
       </c>
       <c r="X24" s="1">
         <f ca="1"/>
-        <v>4.0757004437522006</v>
+        <v>3.3577682261772592</v>
       </c>
       <c r="Y24" s="1">
         <f ca="1"/>
-        <v>4.0578101952309025</v>
+        <v>2.5323729434408517</v>
       </c>
       <c r="Z24" s="1">
         <f ca="1"/>
-        <v>3.8489761570955703</v>
+        <v>3.7749161137831817</v>
       </c>
     </row>
     <row r="25" spans="4:26" x14ac:dyDescent="0.25">
@@ -1701,54 +1701,54 @@
       </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6350159786405879</v>
+        <v>0.36031596466624671</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49560453798895621</v>
+        <v>0.55935223433144765</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31376395692130654</v>
+        <v>3.7180505556847376E-2</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88021405827221788</v>
+        <v>0.5880045611023037</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62664414290447923</v>
+        <v>0.8725301041512179</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98305401801377135</v>
+        <v>0.25817536145296849</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="U25" s="1">
         <f ca="1"/>
-        <v>4.0941626893685994</v>
+        <v>4.2859589577021948</v>
       </c>
       <c r="V25" s="1">
         <f ca="1"/>
-        <v>2.7486591913092262</v>
+        <v>3.6731851068818888</v>
       </c>
       <c r="W25" s="1">
         <f ca="1"/>
-        <v>3.626516102692074</v>
+        <v>3.5914327019378827</v>
       </c>
       <c r="X25" s="1">
         <f ca="1"/>
-        <v>2.9336959676618615</v>
+        <v>3.9168521419455966</v>
       </c>
       <c r="Y25" s="1">
         <f ca="1"/>
-        <v>2.8556748883658072</v>
+        <v>3.5106636361568704</v>
       </c>
       <c r="Z25" s="1">
         <f ca="1"/>
-        <v>2.9298659259649895</v>
+        <v>3.6651859393799935</v>
       </c>
     </row>
     <row r="26" spans="4:26" x14ac:dyDescent="0.25">
@@ -1757,54 +1757,54 @@
       </c>
       <c r="E26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60812453603619054</v>
+        <v>0.854724724764648</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37307602221843517</v>
+        <v>0.61352558187536355</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25266767515026878</v>
+        <v>0.38944500352527434</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27960757481067944</v>
+        <v>0.93868380343054258</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27998375374383833</v>
+        <v>0.7643171108221356</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18335490273424526</v>
+        <v>0.91501905218286561</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="U26" s="1">
         <f ca="1"/>
-        <v>2.4598250856283719</v>
+        <v>4.1111607751366428</v>
       </c>
       <c r="V26" s="1">
         <f ca="1"/>
-        <v>1.9033234214667969</v>
+        <v>3.7137503780672292</v>
       </c>
       <c r="W26" s="1">
         <f ca="1"/>
-        <v>2.4813590518796342</v>
+        <v>3.7648109962952065</v>
       </c>
       <c r="X26" s="1">
         <f ca="1"/>
-        <v>1.9657797396778525</v>
+        <v>3.745821538708114</v>
       </c>
       <c r="Y26" s="1">
         <f ca="1"/>
-        <v>2.2842498097531823</v>
+        <v>2.8049943095688987</v>
       </c>
       <c r="Z26" s="1">
         <f ca="1"/>
-        <v>1.921182802866253</v>
+        <v>3.719087691249547</v>
       </c>
     </row>
     <row r="27" spans="4:26" x14ac:dyDescent="0.25">
@@ -1813,27 +1813,27 @@
       </c>
       <c r="E27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77324410243811537</v>
+        <v>0.65227467886466173</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32094725713119221</v>
+        <v>0.24079811817380281</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80679291847269452</v>
+        <v>0.78014304030818038</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87612067285074935</v>
+        <v>0.27347456240172496</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15008053135833233</v>
+        <v>0.68445511604040798</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4102444198226094</v>
+        <v>0.42493320156178882</v>
       </c>
     </row>
     <row r="28" spans="4:26" x14ac:dyDescent="0.25">
@@ -1842,27 +1842,27 @@
       </c>
       <c r="E28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.620142979707203</v>
+        <v>0.59894283924649583</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34438726422972044</v>
+        <v>0.84733475635543531</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55862151685090367</v>
+        <v>0.42608866651019817</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91776898864365086</v>
+        <v>5.3041814022560696E-2</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60438368368433504</v>
+        <v>0.94925854119260811</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3686176547647606E-2</v>
+        <v>0.49286737250838908</v>
       </c>
     </row>
     <row r="29" spans="4:26" x14ac:dyDescent="0.25">
@@ -1871,27 +1871,27 @@
       </c>
       <c r="E29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82361126333074874</v>
+        <v>0.81517194771261892</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22324832343775647</v>
+        <v>0.26014770473211424</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45412185550331186</v>
+        <v>0.7049404976106195</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24776197736428562</v>
+        <v>0.26773347300178429</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86806708581618608</v>
+        <v>4.3574202953680308E-2</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23867553628308114</v>
+        <v>0.85971918690459193</v>
       </c>
     </row>
     <row r="30" spans="4:26" x14ac:dyDescent="0.25">
@@ -1900,27 +1900,27 @@
       </c>
       <c r="E30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62600382730403326</v>
+        <v>0.97398516737373264</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11784314529159556</v>
+        <v>0.93496268716182607</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48935701260277831</v>
+        <v>3.2496412250604068E-2</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42813939741658302</v>
+        <v>0.62772614848801611</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38194909746794414</v>
+        <v>0.55325013120719013</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2442908238222542</v>
+        <v>0.53794339124701951</v>
       </c>
     </row>
     <row r="31" spans="4:26" x14ac:dyDescent="0.25">
@@ -1929,27 +1929,27 @@
       </c>
       <c r="E31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59007290454834582</v>
+        <v>0.67292451624590166</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80741713330983056</v>
+        <v>6.9502942939601242E-2</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92353214905716741</v>
+        <v>0.58887900761900636</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53265551944593248</v>
+        <v>0.49476925305889685</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40620098091888723</v>
+        <v>0.26549030085500813</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5537971522641304</v>
+        <v>0.93797691694404972</v>
       </c>
     </row>
     <row r="32" spans="4:26" x14ac:dyDescent="0.25">
@@ -1958,27 +1958,27 @@
       </c>
       <c r="E32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45762692249308401</v>
+        <v>0.4015189656058995</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39441946886304358</v>
+        <v>0.50389569250686572</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96533596062600902</v>
+        <v>0.83545904520306868</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18051101351404009</v>
+        <v>0.55018298407803978</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68800110714609974</v>
+        <v>0.71648786094425354</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84520965722010566</v>
+        <v>0.25052829989085801</v>
       </c>
     </row>
     <row r="33" spans="3:33" x14ac:dyDescent="0.25">
@@ -1987,27 +1987,27 @@
       </c>
       <c r="E33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70496987894464336</v>
+        <v>0.93468092552026305</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7.9851617618614923E-2</v>
+        <v>0.95287108063352577</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99071898149171056</v>
+        <v>0.97681605233618862</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38795779218848747</v>
+        <v>0.95737603236786928</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41364119529894938</v>
+        <v>0.11812577183417283</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90112830257677867</v>
+        <v>0.96149689270581218</v>
       </c>
     </row>
     <row r="34" spans="3:33" x14ac:dyDescent="0.25">
@@ -2016,27 +2016,27 @@
       </c>
       <c r="E34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55935419768963157</v>
+        <v>0.23027319216700348</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36020241960749733</v>
+        <v>0.83385791945827947</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90361234747571451</v>
+        <v>0.39314935624411362</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1112606004986367E-2</v>
+        <v>0.51490512972967639</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47301446973092032</v>
+        <v>0.21488046869689004</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22779250157387998</v>
+        <v>0.39633349601539725</v>
       </c>
       <c r="T34" s="6" t="s">
         <v>26</v>
@@ -2087,82 +2087,82 @@
       </c>
       <c r="E35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95685313731928423</v>
+        <v>0.47706784643301992</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72612834662457182</v>
+        <v>0.48100735558032592</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58324303383442855</v>
+        <v>0.42826214633587778</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16002687951305794</v>
+        <v>0.49325576975101704</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42955187180472709</v>
+        <v>0.54083581802319192</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77098603350932682</v>
+        <v>0.50307273939657848</v>
       </c>
       <c r="T35" s="6" t="s">
         <v>0</v>
       </c>
       <c r="U35" s="6" cm="1">
         <f t="array" aca="1" ref="U35:AG40" ca="1">MMULT(U21:Z26,D40:P45)</f>
-        <v>9.1403148976676238</v>
+        <v>3.796599663876032</v>
       </c>
       <c r="V35" s="6">
         <f ca="1"/>
-        <v>9.7585056617170505</v>
+        <v>11.463111190870414</v>
       </c>
       <c r="W35" s="6">
         <f ca="1"/>
-        <v>8.8974200871549662</v>
+        <v>11.566578521886898</v>
       </c>
       <c r="X35" s="6">
         <f ca="1"/>
-        <v>9.3469872712786888</v>
+        <v>8.0418363106870601</v>
       </c>
       <c r="Y35" s="6">
         <f ca="1"/>
-        <v>7.9718087453235889</v>
+        <v>8.7150513880117373</v>
       </c>
       <c r="Z35" s="6">
         <f ca="1"/>
-        <v>11.643134155072175</v>
+        <v>7.020572166378261</v>
       </c>
       <c r="AA35" s="6">
         <f ca="1"/>
-        <v>10.304710256081156</v>
+        <v>9.8895881100389111</v>
       </c>
       <c r="AB35" s="6">
         <f ca="1"/>
-        <v>8.5557742342052592</v>
+        <v>7.0150328767236534</v>
       </c>
       <c r="AC35" s="6">
         <f ca="1"/>
-        <v>10.088063701513226</v>
+        <v>11.5936282968058</v>
       </c>
       <c r="AD35" s="6">
         <f ca="1"/>
-        <v>11.370613227293713</v>
+        <v>8.7224457946398406</v>
       </c>
       <c r="AE35" s="6">
         <f ca="1"/>
-        <v>8.3234051337412254</v>
+        <v>10.251047545884823</v>
       </c>
       <c r="AF35" s="6">
         <f ca="1"/>
-        <v>12.939914198663018</v>
+        <v>9.371457830047472</v>
       </c>
       <c r="AG35" s="6">
         <f ca="1"/>
-        <v>7.057367120403061</v>
+        <v>6.5227750392188577</v>
       </c>
     </row>
     <row r="36" spans="3:33" x14ac:dyDescent="0.25">
@@ -2171,55 +2171,55 @@
       </c>
       <c r="U36" s="6">
         <f ca="1"/>
-        <v>10.011517972660169</v>
+        <v>4.7059615845862561</v>
       </c>
       <c r="V36" s="6">
         <f ca="1"/>
-        <v>10.424109849387452</v>
+        <v>14.336220792486531</v>
       </c>
       <c r="W36" s="6">
         <f ca="1"/>
-        <v>9.2716753908131508</v>
+        <v>14.305061930638956</v>
       </c>
       <c r="X36" s="6">
         <f ca="1"/>
-        <v>10.054111602694288</v>
+        <v>10.388822976580265</v>
       </c>
       <c r="Y36" s="6">
         <f ca="1"/>
-        <v>8.9105087686529245</v>
+        <v>10.485761030020456</v>
       </c>
       <c r="Z36" s="6">
         <f ca="1"/>
-        <v>12.478108317597702</v>
+        <v>8.8744627991401615</v>
       </c>
       <c r="AA36" s="6">
         <f ca="1"/>
-        <v>11.165015467274127</v>
+        <v>11.978725872670145</v>
       </c>
       <c r="AB36" s="6">
         <f ca="1"/>
-        <v>9.2553795321616494</v>
+        <v>8.5147821751551511</v>
       </c>
       <c r="AC36" s="6">
         <f ca="1"/>
-        <v>11.163915786876981</v>
+        <v>13.927524050433378</v>
       </c>
       <c r="AD36" s="6">
         <f ca="1"/>
-        <v>12.668227715706854</v>
+        <v>10.885842541965502</v>
       </c>
       <c r="AE36" s="6">
         <f ca="1"/>
-        <v>8.9405556329245304</v>
+        <v>12.563200111273119</v>
       </c>
       <c r="AF36" s="6">
         <f ca="1"/>
-        <v>13.837764271581928</v>
+        <v>11.726724826508686</v>
       </c>
       <c r="AG36" s="6">
         <f ca="1"/>
-        <v>7.9838203442605558</v>
+        <v>7.7935208810213314</v>
       </c>
     </row>
     <row r="37" spans="3:33" x14ac:dyDescent="0.25">
@@ -2228,55 +2228,55 @@
       </c>
       <c r="U37" s="6">
         <f ca="1"/>
-        <v>15.544073224014689</v>
+        <v>5.5294258138623791</v>
       </c>
       <c r="V37" s="6">
         <f ca="1"/>
-        <v>16.164283209967898</v>
+        <v>16.388582496545236</v>
       </c>
       <c r="W37" s="6">
         <f ca="1"/>
-        <v>14.548565953374942</v>
+        <v>16.526966170804879</v>
       </c>
       <c r="X37" s="6">
         <f ca="1"/>
-        <v>15.532751486134028</v>
+        <v>11.439929985007961</v>
       </c>
       <c r="Y37" s="6">
         <f ca="1"/>
-        <v>13.737518505040192</v>
+        <v>12.406353075903697</v>
       </c>
       <c r="Z37" s="6">
         <f ca="1"/>
-        <v>19.247843340221202</v>
+        <v>10.126488831224536</v>
       </c>
       <c r="AA37" s="6">
         <f ca="1"/>
-        <v>17.352047698280565</v>
+        <v>14.2182096456166</v>
       </c>
       <c r="AB37" s="6">
         <f ca="1"/>
-        <v>14.327864298764956</v>
+        <v>10.377690669596655</v>
       </c>
       <c r="AC37" s="6">
         <f ca="1"/>
-        <v>17.272449043322531</v>
+        <v>16.901455843391069</v>
       </c>
       <c r="AD37" s="6">
         <f ca="1"/>
-        <v>19.55738547239692</v>
+        <v>12.817061171574576</v>
       </c>
       <c r="AE37" s="6">
         <f ca="1"/>
-        <v>13.864152739802471</v>
+        <v>14.661541613824177</v>
       </c>
       <c r="AF37" s="6">
         <f ca="1"/>
-        <v>21.635963554949424</v>
+        <v>13.366318730996028</v>
       </c>
       <c r="AG37" s="6">
         <f ca="1"/>
-        <v>12.317965348187386</v>
+        <v>8.919322702802237</v>
       </c>
     </row>
     <row r="38" spans="3:33" x14ac:dyDescent="0.25">
@@ -2285,55 +2285,55 @@
       </c>
       <c r="U38" s="6">
         <f ca="1"/>
-        <v>13.246951375941435</v>
+        <v>4.7441048304155329</v>
       </c>
       <c r="V38" s="6">
         <f ca="1"/>
-        <v>13.911885084266704</v>
+        <v>14.370091423503876</v>
       </c>
       <c r="W38" s="6">
         <f ca="1"/>
-        <v>12.502097860689707</v>
+        <v>14.971838473115387</v>
       </c>
       <c r="X38" s="6">
         <f ca="1"/>
-        <v>13.38328589623066</v>
+        <v>10.110877318662624</v>
       </c>
       <c r="Y38" s="6">
         <f ca="1"/>
-        <v>11.557570237978773</v>
+        <v>10.713152275535903</v>
       </c>
       <c r="Z38" s="6">
         <f ca="1"/>
-        <v>16.496028203732351</v>
+        <v>8.6730995738898589</v>
       </c>
       <c r="AA38" s="6">
         <f ca="1"/>
-        <v>14.600911245961088</v>
+        <v>12.130525319446493</v>
       </c>
       <c r="AB38" s="6">
         <f ca="1"/>
-        <v>12.33163927958115</v>
+        <v>9.2578844220474572</v>
       </c>
       <c r="AC38" s="6">
         <f ca="1"/>
-        <v>14.60180292757353</v>
+        <v>15.226341520020025</v>
       </c>
       <c r="AD38" s="6">
         <f ca="1"/>
-        <v>16.372152019005114</v>
+        <v>10.881589903777368</v>
       </c>
       <c r="AE38" s="6">
         <f ca="1"/>
-        <v>11.952258584833434</v>
+        <v>12.458670500996496</v>
       </c>
       <c r="AF38" s="6">
         <f ca="1"/>
-        <v>18.567553824244865</v>
+        <v>11.453105351613415</v>
       </c>
       <c r="AG38" s="6">
         <f ca="1"/>
-        <v>10.39911406952098</v>
+        <v>8.0974030641998418</v>
       </c>
     </row>
     <row r="39" spans="3:33" x14ac:dyDescent="0.25">
@@ -2384,55 +2384,55 @@
       </c>
       <c r="U39" s="6">
         <f ca="1"/>
-        <v>10.113252359804209</v>
+        <v>5.2179429766090948</v>
       </c>
       <c r="V39" s="6">
         <f ca="1"/>
-        <v>10.127662051749862</v>
+        <v>15.70294036040131</v>
       </c>
       <c r="W39" s="6">
         <f ca="1"/>
-        <v>8.925214377565112</v>
+        <v>15.829729758915269</v>
       </c>
       <c r="X39" s="6">
         <f ca="1"/>
-        <v>9.8186245965819072</v>
+        <v>10.989448232664696</v>
       </c>
       <c r="Y39" s="6">
         <f ca="1"/>
-        <v>8.8414417050513681</v>
+        <v>11.706011851939303</v>
       </c>
       <c r="Z39" s="6">
         <f ca="1"/>
-        <v>11.870115316189159</v>
+        <v>9.6574712900932802</v>
       </c>
       <c r="AA39" s="6">
         <f ca="1"/>
-        <v>10.741911902151516</v>
+        <v>13.338314192794044</v>
       </c>
       <c r="AB39" s="6">
         <f ca="1"/>
-        <v>9.1994649500192303</v>
+        <v>9.8170565042171649</v>
       </c>
       <c r="AC39" s="6">
         <f ca="1"/>
-        <v>11.145034247086166</v>
+        <v>16.00328591604648</v>
       </c>
       <c r="AD39" s="6">
         <f ca="1"/>
-        <v>12.449221500286479</v>
+        <v>12.023444060507828</v>
       </c>
       <c r="AE39" s="6">
         <f ca="1"/>
-        <v>8.8767414275576382</v>
+        <v>13.819054531819319</v>
       </c>
       <c r="AF39" s="6">
         <f ca="1"/>
-        <v>13.835576651257119</v>
+        <v>12.796492659582242</v>
       </c>
       <c r="AG39" s="6">
         <f ca="1"/>
-        <v>8.2245520655113999</v>
+        <v>8.6548832144423447</v>
       </c>
     </row>
     <row r="40" spans="3:33" x14ac:dyDescent="0.25">
@@ -2441,110 +2441,110 @@
       </c>
       <c r="D40" s="5">
         <f ca="1">RAND()</f>
-        <v>0.82492296734378512</v>
+        <v>0.49435482620213822</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" ref="E40:P45" ca="1" si="3">RAND()</f>
-        <v>0.21076273443092031</v>
+        <v>0.71746373413188747</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10765414270473161</v>
+        <v>0.85451058050808404</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30003271839417944</v>
+        <v>0.94756578690480864</v>
       </c>
       <c r="H40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60595425112089896</v>
+        <v>0.55563023472752604</v>
       </c>
       <c r="I40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4.235659540734571E-2</v>
+        <v>0.24855748711661108</v>
       </c>
       <c r="J40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37720629331018141</v>
+        <v>0.82712697532238477</v>
       </c>
       <c r="K40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48548058954349049</v>
+        <v>0.14725581688649469</v>
       </c>
       <c r="L40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81820137605758936</v>
+        <v>0.67186823587046396</v>
       </c>
       <c r="M40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80648113156841961</v>
+        <v>0.81306373206260019</v>
       </c>
       <c r="N40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48667901433689364</v>
+        <v>0.74248762221812381</v>
       </c>
       <c r="O40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80682316445157543</v>
+        <v>0.65900057040976601</v>
       </c>
       <c r="P40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96210612485962999</v>
+        <v>0.64479354271070211</v>
       </c>
       <c r="T40" s="6" t="s">
         <v>5</v>
       </c>
       <c r="U40" s="6">
         <f ca="1"/>
-        <v>6.8898271422146378</v>
+        <v>5.0382584773068793</v>
       </c>
       <c r="V40" s="6">
         <f ca="1"/>
-        <v>6.9940979511634556</v>
+        <v>15.096033718757598</v>
       </c>
       <c r="W40" s="6">
         <f ca="1"/>
-        <v>6.2936898615263557</v>
+        <v>15.604721431772383</v>
       </c>
       <c r="X40" s="6">
         <f ca="1"/>
-        <v>6.7480896491668814</v>
+        <v>10.614386088600638</v>
       </c>
       <c r="Y40" s="6">
         <f ca="1"/>
-        <v>5.8864907513258711</v>
+        <v>11.295555840665553</v>
       </c>
       <c r="Z40" s="6">
         <f ca="1"/>
-        <v>8.3065066193151011</v>
+        <v>9.1897778377504125</v>
       </c>
       <c r="AA40" s="6">
         <f ca="1"/>
-        <v>7.4150068853735558</v>
+        <v>12.869757172829827</v>
       </c>
       <c r="AB40" s="6">
         <f ca="1"/>
-        <v>6.2675770847643584</v>
+        <v>9.7487433143631446</v>
       </c>
       <c r="AC40" s="6">
         <f ca="1"/>
-        <v>7.5466892095624143</v>
+        <v>15.949111971961342</v>
       </c>
       <c r="AD40" s="6">
         <f ca="1"/>
-        <v>8.4812002519359062</v>
+        <v>11.622997025016369</v>
       </c>
       <c r="AE40" s="6">
         <f ca="1"/>
-        <v>6.1313611574552631</v>
+        <v>13.214958002221458</v>
       </c>
       <c r="AF40" s="6">
         <f ca="1"/>
-        <v>9.423599673997046</v>
+        <v>12.091813799708707</v>
       </c>
       <c r="AG40" s="6">
         <f ca="1"/>
-        <v>5.2730006391276349</v>
+        <v>8.3299922257774952</v>
       </c>
     </row>
     <row r="41" spans="3:33" x14ac:dyDescent="0.25">
@@ -2553,55 +2553,55 @@
       </c>
       <c r="D41" s="5">
         <f t="shared" ref="D41:D45" ca="1" si="4">RAND()</f>
-        <v>0.53288360189660777</v>
+        <v>0.18796383436378439</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51408172701118438</v>
+        <v>0.79575923603979415</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27997573069867676</v>
+        <v>0.88972585314834085</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63984981965274679</v>
+        <v>0.743824623290125</v>
       </c>
       <c r="H41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57589313775969098</v>
+        <v>0.10457308229229934</v>
       </c>
       <c r="I41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8650386675291688</v>
+        <v>0.53924208038300769</v>
       </c>
       <c r="J41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64842582215836253</v>
+        <v>0.15236977203005631</v>
       </c>
       <c r="K41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54045275443478813</v>
+        <v>0.6378931413728276</v>
       </c>
       <c r="L41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66325050888102377</v>
+        <v>0.76410955281433823</v>
       </c>
       <c r="M41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85944695912215796</v>
+        <v>0.54265112328162046</v>
       </c>
       <c r="N41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56609986767514686</v>
+        <v>0.2284402117321237</v>
       </c>
       <c r="O41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45142205203637153</v>
+        <v>0.48323062651682291</v>
       </c>
       <c r="P41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61281089989350435</v>
+        <v>5.0946635466605494E-3</v>
       </c>
     </row>
     <row r="42" spans="3:33" x14ac:dyDescent="0.25">
@@ -2610,55 +2610,55 @@
       </c>
       <c r="D42" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18868013591821331</v>
+        <v>3.3067437473524586E-2</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49992602093567184</v>
+        <v>0.48315786895891466</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97142667285801609</v>
+        <v>0.94631716502337615</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42772996243860084</v>
+        <v>0.54483569306190804</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4662400483702522E-2</v>
+        <v>0.66821249632085056</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62344643286827084</v>
+        <v>0.36891201416373265</v>
       </c>
       <c r="J42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76413602919520529</v>
+        <v>0.71268153932985101</v>
       </c>
       <c r="K42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32192706070824506</v>
+        <v>0.50654753830789079</v>
       </c>
       <c r="L42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11827587924255212</v>
+        <v>0.86470978853427138</v>
       </c>
       <c r="M42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13287596371891919</v>
+        <v>0.47898917184269163</v>
       </c>
       <c r="N42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4491198565036747</v>
+        <v>0.71088523408582005</v>
       </c>
       <c r="O42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84004608135725412</v>
+        <v>5.7030431200823961E-2</v>
       </c>
       <c r="P42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19923861105539697</v>
+        <v>7.5881916491319479E-2</v>
       </c>
     </row>
     <row r="43" spans="3:33" x14ac:dyDescent="0.25">
@@ -2667,55 +2667,55 @@
       </c>
       <c r="D43" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44225732733792367</v>
+        <v>0.50539112885477844</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92935559367099541</v>
+        <v>0.63414568870226296</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24114162225266533</v>
+        <v>0.27455353196087195</v>
       </c>
       <c r="G43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8013398192611918</v>
+        <v>7.3499467544815955E-2</v>
       </c>
       <c r="H43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63454230346597973</v>
+        <v>0.57612622508757605</v>
       </c>
       <c r="I43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78819106776444048</v>
+        <v>0.41678038470958223</v>
       </c>
       <c r="J43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.227975374286185E-2</v>
+        <v>0.86083505549609507</v>
       </c>
       <c r="K43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70597504070967143</v>
+        <v>0.66541376703615085</v>
       </c>
       <c r="L43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5694626425138779</v>
+        <v>0.94146725383264018</v>
       </c>
       <c r="M43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35603572709760278</v>
+        <v>0.95706982553715048</v>
       </c>
       <c r="N43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33757168249307357</v>
+        <v>0.73537302191586684</v>
       </c>
       <c r="O43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83724594157498078</v>
+        <v>0.8170767185630462</v>
       </c>
       <c r="P43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32437864221999979</v>
+        <v>0.25616895145891094</v>
       </c>
     </row>
     <row r="44" spans="3:33" x14ac:dyDescent="0.25">
@@ -2724,55 +2724,55 @@
       </c>
       <c r="D44" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.85463066793627829</v>
+        <v>3.2692688980148876E-2</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62625941000913166</v>
+        <v>0.75236327854764118</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79323765958839532</v>
+        <v>0.38812406128369004</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57004718931201803</v>
+        <v>0.4624236076147572</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32710872259632462</v>
+        <v>0.52541517399916815</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84417712909043274</v>
+        <v>0.65038743765461959</v>
       </c>
       <c r="J44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75360330204745629</v>
+        <v>0.46884655684201715</v>
       </c>
       <c r="K44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55100938202738314</v>
+        <v>0.10302012501046276</v>
       </c>
       <c r="L44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77581128311805425</v>
+        <v>1.1163490738072546E-2</v>
       </c>
       <c r="M44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93211846465595338</v>
+        <v>0.28459958976437982</v>
       </c>
       <c r="N44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73423917069298028</v>
+        <v>0.71998129466363125</v>
       </c>
       <c r="O44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88659173018461435</v>
+        <v>0.72587339956081331</v>
       </c>
       <c r="P44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5209733630470197E-4</v>
+        <v>0.32924079832856101</v>
       </c>
     </row>
     <row r="45" spans="3:33" x14ac:dyDescent="0.25">
@@ -2781,55 +2781,55 @@
       </c>
       <c r="D45" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28974728202715816</v>
+        <v>5.338274535744858E-2</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52012614538930158</v>
+        <v>0.77610550781899423</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41617719953601151</v>
+        <v>0.835595178176747</v>
       </c>
       <c r="G45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44424773822546482</v>
+        <v>8.9483486351626396E-2</v>
       </c>
       <c r="H45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60880875096924736</v>
+        <v>0.6655841823553108</v>
       </c>
       <c r="I45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79698429354785683</v>
+        <v>0.37399106198785259</v>
       </c>
       <c r="J45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81825237439009979</v>
+        <v>0.45190765171202274</v>
       </c>
       <c r="K45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31203289529049105</v>
+        <v>0.56084379470974388</v>
       </c>
       <c r="L45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56559265758814692</v>
+        <v>0.95074142413823604</v>
       </c>
       <c r="M45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88632897620829632</v>
+        <v>2.1100279623469831E-2</v>
       </c>
       <c r="N45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20900660274969907</v>
+        <v>0.5010997750974524</v>
       </c>
       <c r="O45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42903757025382605</v>
+        <v>0.612127395212821</v>
       </c>
       <c r="P45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31603798784682424</v>
+        <v>0.93879452993999957</v>
       </c>
     </row>
   </sheetData>
